--- a/xlsx/柳橙_intext.xlsx
+++ b/xlsx/柳橙_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>柳橙</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%A6%96%E5%A6%96%E5%A4%A2</t>
   </si>
   <si>
-    <t>東方妖妖夢</t>
+    <t>东方妖妖梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%B1%BB</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>飽和脂肪</t>
+    <t>饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>單元不飽和脂肪</t>
+    <t>单元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>多元不飽和脂肪</t>
+    <t>多元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%B0%A8%E9%85%B8</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>蘇氨酸</t>
+    <t>苏氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E4%BA%AE%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>異亮氨酸</t>
+    <t>异亮氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AE%E6%B0%A8%E9%85%B8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>賴氨酸</t>
+    <t>赖氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E6%B0%A8%E9%85%B8</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%88%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>纈氨酸</t>
+    <t>缬氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E6%B0%A8%E9%85%B8</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>組氨酸</t>
+    <t>组氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%99%E6%B0%A8%E9%85%B8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>穀氨酸</t>
+    <t>谷氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%B0%A8%E9%85%B8</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>絲氨酸</t>
+    <t>丝氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0A</t>
   </si>
   <si>
-    <t>維生素A</t>
+    <t>维生素A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%CE%92-%E8%83%A1%E8%90%9D%E5%8D%9C%E7%B4%A0</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%BB%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>葉黃素</t>
+    <t>叶黄素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E9%BB%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>玉米黃素</t>
+    <t>玉米黄素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E8%83%BA</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E9%B9%BC%E9%85%B8</t>
   </si>
   <si>
-    <t>菸鹼酸</t>
+    <t>菸碱酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%85%B8</t>
@@ -293,79 +293,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0C</t>
   </si>
   <si>
-    <t>維生素C</t>
+    <t>维生素C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0D</t>
   </si>
   <si>
-    <t>維生素D</t>
+    <t>维生素D</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0E</t>
   </si>
   <si>
-    <t>維生素E</t>
+    <t>维生素E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0K</t>
   </si>
   <si>
-    <t>維生素K</t>
+    <t>维生素K</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>鈣營養</t>
+    <t>钙营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B3%AA</t>
   </si>
   <si>
-    <t>鐵質</t>
+    <t>铁质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%B7%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>磷營養</t>
+    <t>磷营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%89</t>
   </si>
   <si>
-    <t>鈉</t>
+    <t>钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%85</t>
   </si>
   <si>
-    <t>鋅</t>
+    <t>锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%91%E6%A9%98%E5%B1%AC</t>
   </si>
   <si>
-    <t>柑橘屬</t>
+    <t>柑橘属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E6%A0%91</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E6%A9%99</t>
@@ -467,25 +467,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
@@ -497,73 +497,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西亞</t>
+    <t>西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>保加利亞語</t>
+    <t>保加利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語</t>
+    <t>阿尔巴尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E5%9D%A1%E9%87%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>拿坡里語</t>
+    <t>拿坡里语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>土耳其語</t>
+    <t>土耳其语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>格魯吉亞語</t>
+    <t>格鲁吉亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E5%93%88%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿姆哈拉語</t>
+    <t>阿姆哈拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%BE%85</t>
   </si>
   <si>
-    <t>台羅</t>
+    <t>台罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%9C%A8</t>
@@ -587,25 +587,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%A3%E9%A1%9E</t>
   </si>
   <si>
-    <t>醣類</t>
+    <t>醣类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0B%E7%BE%A4</t>
   </si>
   <si>
-    <t>維生素B群</t>
+    <t>维生素B群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E8%83%A1%E8%98%BF%E8%94%94%E7%B4%A0</t>
   </si>
   <si>
-    <t>類胡蘿蔔素</t>
+    <t>类胡萝卜素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC%E9%85%B8</t>
   </si>
   <si>
-    <t>檸檬酸</t>
+    <t>柠檬酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E8%83%B6</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%A8%E6%B1%81%E6%A9%9F</t>
   </si>
   <si>
-    <t>榨汁機</t>
+    <t>榨汁机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E6%9E%9C</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -785,9 +785,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E9%82%A6%E5%BD%A6</t>
   </si>
   <si>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E9%81%8A</t>
   </si>
   <si>
-    <t>少年遊</t>
+    <t>少年游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%A9%99</t>
@@ -827,13 +824,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%91%E6%A9%98%E5%B1%9E</t>
   </si>
   <si>
-    <t>柑橘属</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E6%AA%B8</t>
   </si>
   <si>
-    <t>青檸</t>
+    <t>青柠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%BA%84%E6%A9%99</t>
@@ -905,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%B8%E6%AB%9E</t>
   </si>
   <si>
-    <t>枸櫞</t>
+    <t>枸橼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%89%8B%E6%9F%91</t>
@@ -2362,7 +2356,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2391,7 +2385,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2420,7 +2414,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -2449,7 +2443,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -2507,7 +2501,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2536,7 +2530,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -2565,7 +2559,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -4998,7 +4992,7 @@
         <v>255</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5024,10 +5018,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5053,10 +5047,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5111,10 +5105,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5140,10 +5134,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>8</v>
@@ -5169,10 +5163,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5198,10 +5192,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5227,10 +5221,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5256,10 +5250,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5285,10 +5279,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5314,10 +5308,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5343,10 +5337,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5372,10 +5366,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5401,10 +5395,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5459,10 +5453,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5488,10 +5482,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5517,10 +5511,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5546,10 +5540,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5575,10 +5569,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5604,10 +5598,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5633,10 +5627,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -5662,10 +5656,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5691,10 +5685,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5720,10 +5714,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5749,10 +5743,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5778,10 +5772,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5807,10 +5801,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>4</v>
@@ -5836,10 +5830,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>305</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
